--- a/Diurnal_Variation/TimeSeriesSummary.xlsx
+++ b/Diurnal_Variation/TimeSeriesSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenm\Desktop\Kevin_senior_thesis\Diurnal_variation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\plot_update\Diurnal_variation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89539126-5434-4B36-9209-107F3A8F92D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2BFC53-6EBB-4B45-9C9F-2572844E875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -57,9 +68,6 @@
     <t>pH</t>
   </si>
   <si>
-    <t>ODO mg/L</t>
-  </si>
-  <si>
     <t>Ca</t>
   </si>
   <si>
@@ -222,11 +230,15 @@
     <t>EFC 07-24</t>
   </si>
   <si>
-    <t>TempC</t>
+    <t>Temperature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K.instant</t>
+    <t>KO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,6 +246,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -314,16 +330,17 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,13 +620,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.4">
@@ -629,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -647,99 +665,99 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -800,58 +818,58 @@
       <c r="T2" s="5">
         <v>3770</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="14">
         <v>2402</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="13">
         <v>22.3</v>
       </c>
-      <c r="W2" s="10">
+      <c r="W2" s="9">
         <v>0.56489999999999996</v>
       </c>
-      <c r="X2" s="10">
+      <c r="X2" s="9">
         <v>1.0789</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Y2" s="9">
         <v>24.657499999999999</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="Z2" s="9">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AA2" s="9">
         <v>0.1961</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="9">
         <v>0.24970000000000001</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="9">
         <v>22.6114</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="9">
         <v>0.57620000000000005</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AE2" s="9">
         <v>-0.21820000000000001</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AF2" s="9">
         <v>0.2447</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="10">
         <v>27</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="11">
         <v>0.85140000000000005</v>
       </c>
       <c r="AI2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ2">
         <v>0.1331</v>
       </c>
-      <c r="AK2" s="13">
+      <c r="AK2" s="12">
         <v>6.032E-7</v>
       </c>
-      <c r="AL2" s="13">
+      <c r="AL2" s="12">
         <v>2.3739999999999999E-8</v>
       </c>
       <c r="AM2">
@@ -860,14 +878,14 @@
       <c r="AN2">
         <v>-6.6360000000000001</v>
       </c>
-      <c r="AO2" s="13">
+      <c r="AO2" s="12">
         <f>0.035*AK2*1000</f>
         <v>2.1112E-5</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -928,50 +946,50 @@
       <c r="T3" s="5">
         <v>3810</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="14">
         <v>2390</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="13">
         <v>26</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="9">
         <v>0.50860000000000005</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="9">
         <v>0.79220000000000002</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="9">
         <v>25.758099999999999</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="9">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="9">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="9">
         <v>0.1545</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="9">
         <v>6.4985999999999997</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AD3" s="9">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="9">
         <v>0.2104</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AF3" s="9">
         <v>0.1477</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="10">
         <v>23</v>
       </c>
-      <c r="AH3" s="12">
+      <c r="AH3" s="11">
         <v>1.9279999999999999E-2</v>
       </c>
       <c r="AI3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ3">
         <v>0.1341</v>
@@ -979,7 +997,7 @@
       <c r="AK3">
         <v>2.1749999999999999E-3</v>
       </c>
-      <c r="AL3" s="13">
+      <c r="AL3" s="12">
         <v>8.7239999999999998E-5</v>
       </c>
       <c r="AM3">
@@ -988,14 +1006,14 @@
       <c r="AN3">
         <v>0.4677</v>
       </c>
-      <c r="AO3" s="13">
+      <c r="AO3" s="12">
         <f t="shared" ref="AO3:AO25" si="1">0.035*AK3*1000</f>
         <v>7.6125000000000012E-2</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
@@ -1056,58 +1074,58 @@
       <c r="T4" s="5">
         <v>3800</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="14">
         <v>2339</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="13">
         <v>19.900000000000002</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="9">
         <v>0.35420000000000001</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="9">
         <v>0.66539999999999999</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="9">
         <v>25.995000000000001</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="9">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="9">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="9">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="9">
         <v>5.0521000000000003</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="9">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AE4" s="9">
         <v>-0.27910000000000001</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="9">
         <v>0.11849999999999999</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="10">
         <v>47</v>
       </c>
-      <c r="AH4" s="12">
+      <c r="AH4" s="11">
         <v>0.85570000000000002</v>
       </c>
       <c r="AI4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ4">
         <v>0.1545</v>
       </c>
-      <c r="AK4" s="13">
+      <c r="AK4" s="12">
         <v>6.7029999999999996E-7</v>
       </c>
-      <c r="AL4" s="13">
+      <c r="AL4" s="12">
         <v>2.6899999999999999E-8</v>
       </c>
       <c r="AM4">
@@ -1116,14 +1134,14 @@
       <c r="AN4">
         <v>-6.2679999999999998</v>
       </c>
-      <c r="AO4" s="13">
+      <c r="AO4" s="12">
         <f t="shared" si="1"/>
         <v>2.34605E-5</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
@@ -1184,58 +1202,58 @@
       <c r="T5" s="5">
         <v>3810</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="14">
         <v>2278</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="13">
         <v>15.2</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="9">
         <v>0.30099999999999999</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="9">
         <v>0.59389999999999998</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="9">
         <v>25.650600000000001</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="9">
         <v>1.47E-2</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="9">
         <v>4.58E-2</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="9">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="AC5" s="10">
+      <c r="AC5" s="9">
         <v>4.3327999999999998</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="9">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AE5" s="10">
+      <c r="AE5" s="9">
         <v>-0.3034</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="9">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="10">
         <v>56</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="11">
         <v>-1.062E-3</v>
       </c>
       <c r="AI5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ5">
         <v>0.24</v>
       </c>
-      <c r="AK5" s="13">
+      <c r="AK5" s="12">
         <v>9.636E-4</v>
       </c>
-      <c r="AL5" s="13">
+      <c r="AL5" s="12">
         <v>3.5240000000000001E-5</v>
       </c>
       <c r="AM5">
@@ -1244,14 +1262,14 @@
       <c r="AN5">
         <v>1.45</v>
       </c>
-      <c r="AO5" s="13">
+      <c r="AO5" s="12">
         <f t="shared" si="1"/>
         <v>3.3725999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
@@ -1312,58 +1330,58 @@
       <c r="T6" s="5">
         <v>3800</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="14">
         <v>2295</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="13">
         <v>17</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="9">
         <v>0.24060000000000001</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="9">
         <v>0.58950000000000002</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="9">
         <v>25.012</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="9">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="9">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="9">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="9">
         <v>3.0089999999999999</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD6" s="9">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="AE6" s="10">
+      <c r="AE6" s="9">
         <v>-1.4434</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AF6" s="9">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="10">
         <v>46</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="11">
         <v>0.85619999999999996</v>
       </c>
       <c r="AI6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ6">
         <v>0.27429999999999999</v>
       </c>
-      <c r="AK6" s="13">
+      <c r="AK6" s="12">
         <v>1.248E-6</v>
       </c>
-      <c r="AL6" s="13">
+      <c r="AL6" s="12">
         <v>4.3679999999999998E-8</v>
       </c>
       <c r="AM6">
@@ -1372,14 +1390,14 @@
       <c r="AN6">
         <v>-3.0089999999999999</v>
       </c>
-      <c r="AO6" s="13">
+      <c r="AO6" s="12">
         <f t="shared" si="1"/>
         <v>4.3680000000000002E-5</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
@@ -1440,50 +1458,50 @@
       <c r="T7" s="5">
         <v>3770</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="14">
         <v>2315</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="13">
         <v>14.6</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="9">
         <v>0.22470000000000001</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="9">
         <v>0.56889999999999996</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="9">
         <v>24.351600000000001</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="9">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="9">
         <v>4.7E-2</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="9">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="AC7" s="10">
+      <c r="AC7" s="9">
         <v>2.8988999999999998</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AD7" s="9">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="AE7" s="10">
+      <c r="AE7" s="9">
         <v>-0.93540000000000001</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AF7" s="9">
         <v>5.21E-2</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="10">
         <v>27</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="11">
         <v>-1.9070000000000001E-3</v>
       </c>
       <c r="AI7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ7">
         <v>0.184</v>
@@ -1491,7 +1509,7 @@
       <c r="AK7">
         <v>1.322E-3</v>
       </c>
-      <c r="AL7" s="13">
+      <c r="AL7" s="12">
         <v>4.8959999999999999E-5</v>
       </c>
       <c r="AM7">
@@ -1500,14 +1518,14 @@
       <c r="AN7">
         <v>1.1539999999999999</v>
       </c>
-      <c r="AO7" s="13">
+      <c r="AO7" s="12">
         <f t="shared" si="1"/>
         <v>4.6270000000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
@@ -1568,58 +1586,58 @@
       <c r="T8" s="5">
         <v>3780</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="14">
         <v>2308</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="13">
         <v>20.2</v>
       </c>
-      <c r="W8" s="10">
+      <c r="W8" s="9">
         <v>0.1774</v>
       </c>
-      <c r="X8" s="10">
+      <c r="X8" s="9">
         <v>0.61770000000000003</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="9">
         <v>24.199200000000001</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="9">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AA8" s="9">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="9">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="AC8" s="10">
+      <c r="AC8" s="9">
         <v>2.3613</v>
       </c>
-      <c r="AD8" s="10">
+      <c r="AD8" s="9">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="AE8" s="10">
+      <c r="AE8" s="9">
         <v>-0.2475</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AF8" s="9">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AG8" s="10">
         <v>11</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AH8" s="11">
         <v>0.85880000000000001</v>
       </c>
       <c r="AI8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ8">
         <v>0.14949999999999999</v>
       </c>
-      <c r="AK8" s="13">
+      <c r="AK8" s="12">
         <v>9.5739999999999993E-7</v>
       </c>
-      <c r="AL8" s="13">
+      <c r="AL8" s="12">
         <v>3.7200000000000002E-8</v>
       </c>
       <c r="AM8">
@@ -1628,14 +1646,14 @@
       <c r="AN8">
         <v>-5.8579999999999997</v>
       </c>
-      <c r="AO8" s="13">
+      <c r="AO8" s="12">
         <f t="shared" si="1"/>
         <v>3.3509000000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6">
         <v>7</v>
@@ -1696,58 +1714,58 @@
       <c r="T9" s="5">
         <v>3810</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="14">
         <v>2282</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="13">
         <v>6.5</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="9">
         <v>0.2535</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="9">
         <v>0.60860000000000003</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="9">
         <v>24.249700000000001</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="9">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AA9" s="9">
         <v>9.11E-2</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="9">
         <v>2.53E-2</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="9">
         <v>3.1000999999999999</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AD9" s="9">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="AE9" s="10">
+      <c r="AE9" s="9">
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AF9" s="9">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="AG9" s="11">
+      <c r="AG9" s="10">
         <v>46</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AH9" s="11">
         <v>0.82830000000000004</v>
       </c>
       <c r="AI9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ9">
         <v>0.13250000000000001</v>
       </c>
-      <c r="AK9" s="13">
+      <c r="AK9" s="12">
         <v>4.9709999999999997E-5</v>
       </c>
-      <c r="AL9" s="13">
+      <c r="AL9" s="12">
         <v>1.9539999999999998E-6</v>
       </c>
       <c r="AM9">
@@ -1756,14 +1774,14 @@
       <c r="AN9">
         <v>-3.1269999999999998</v>
       </c>
-      <c r="AO9" s="13">
+      <c r="AO9" s="12">
         <f t="shared" si="1"/>
         <v>1.73985E-3</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
@@ -1824,50 +1842,50 @@
       <c r="T10" s="5">
         <v>3800</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="14">
         <v>2444</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="13">
         <v>16.899999999999999</v>
       </c>
-      <c r="W10" s="10">
+      <c r="W10" s="9">
         <v>0.2356</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="9">
         <v>0.53390000000000004</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="9">
         <v>26.321300000000001</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="9">
         <v>6.3E-3</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AA10" s="9">
         <v>5.96E-2</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="9">
         <v>6.13E-2</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="9">
         <v>3.5457999999999998</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AD10" s="9">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AE10" s="9">
         <v>0.2155</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AF10" s="9">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AG10" s="10">
         <v>65</v>
       </c>
-      <c r="AH10" s="12">
+      <c r="AH10" s="11">
         <v>3.1789999999999999E-2</v>
       </c>
       <c r="AI10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ10">
         <v>0.15629999999999999</v>
@@ -1875,7 +1893,7 @@
       <c r="AK10">
         <v>2.3749999999999999E-3</v>
       </c>
-      <c r="AL10" s="13">
+      <c r="AL10" s="12">
         <v>9.2979999999999994E-5</v>
       </c>
       <c r="AM10">
@@ -1884,14 +1902,14 @@
       <c r="AN10">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AO10" s="13">
+      <c r="AO10" s="12">
         <f t="shared" si="1"/>
         <v>8.3125000000000004E-2</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6">
         <v>9</v>
@@ -1952,58 +1970,58 @@
       <c r="T11" s="5">
         <v>3760</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="14">
         <v>2314</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="13">
         <v>7.6</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W11" s="9">
         <v>0.20899999999999999</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X11" s="9">
         <v>0.52310000000000001</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="9">
         <v>24.6798</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="9">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="9">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AB11" s="9">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AC11" s="9">
         <v>3.0474999999999999</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AD11" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AE11" s="9">
         <v>-1.002</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AF11" s="9">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AG11" s="10">
         <v>67</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AH11" s="11">
         <v>0.85840000000000005</v>
       </c>
       <c r="AI11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ11">
         <v>0.2412</v>
       </c>
-      <c r="AK11" s="13">
+      <c r="AK11" s="12">
         <v>2.9289999999999998E-6</v>
       </c>
-      <c r="AL11" s="13">
+      <c r="AL11" s="12">
         <v>1.0630000000000001E-7</v>
       </c>
       <c r="AM11">
@@ -2012,14 +2030,14 @@
       <c r="AN11">
         <v>-3.637</v>
       </c>
-      <c r="AO11" s="13">
+      <c r="AO11" s="12">
         <f t="shared" si="1"/>
         <v>1.02515E-4</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
@@ -2080,50 +2098,50 @@
       <c r="T12" s="5">
         <v>3780</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="14">
         <v>2403</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="13">
         <v>16.600000000000001</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="9">
         <v>0.31240000000000001</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="9">
         <v>0.54139999999999999</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="9">
         <v>25.725100000000001</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="Z12" s="9">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AA12" s="9">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AB12" s="9">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="AC12" s="10">
+      <c r="AC12" s="9">
         <v>3.7267999999999999</v>
       </c>
-      <c r="AD12" s="10">
+      <c r="AD12" s="9">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="AE12" s="10">
+      <c r="AE12" s="9">
         <v>-0.2467</v>
       </c>
-      <c r="AF12" s="10">
+      <c r="AF12" s="9">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="AG12" s="11">
+      <c r="AG12" s="10">
         <v>66</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="11">
         <v>-5.8560000000000001E-3</v>
       </c>
       <c r="AI12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ12">
         <v>0.2354</v>
@@ -2131,7 +2149,7 @@
       <c r="AK12">
         <v>1.0039999999999999E-3</v>
       </c>
-      <c r="AL12" s="13">
+      <c r="AL12" s="12">
         <v>3.4799999999999999E-5</v>
       </c>
       <c r="AM12">
@@ -2140,14 +2158,14 @@
       <c r="AN12">
         <v>1.5920000000000001</v>
       </c>
-      <c r="AO12" s="13">
+      <c r="AO12" s="12">
         <f t="shared" si="1"/>
         <v>3.5139999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6">
         <v>11</v>
@@ -2208,50 +2226,50 @@
       <c r="T13" s="5">
         <v>3730</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="14">
         <v>2415</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="13">
         <v>21.2</v>
       </c>
-      <c r="W13" s="10">
+      <c r="W13" s="9">
         <v>0.2288</v>
       </c>
-      <c r="X13" s="10">
+      <c r="X13" s="9">
         <v>0.57399999999999995</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y13" s="9">
         <v>24.175699999999999</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Z13" s="9">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AA13" s="9">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="AB13" s="10">
+      <c r="AB13" s="9">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AC13" s="9">
         <v>3.8264999999999998</v>
       </c>
-      <c r="AD13" s="10">
+      <c r="AD13" s="9">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="AE13" s="10">
+      <c r="AE13" s="9">
         <v>-1.0475000000000001</v>
       </c>
-      <c r="AF13" s="10">
+      <c r="AF13" s="9">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="AG13" s="11">
+      <c r="AG13" s="10">
         <v>53</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="11">
         <v>2.5080000000000002E-2</v>
       </c>
       <c r="AI13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ13">
         <v>0.17469999999999999</v>
@@ -2259,7 +2277,7 @@
       <c r="AK13">
         <v>1.6299999999999999E-3</v>
       </c>
-      <c r="AL13" s="13">
+      <c r="AL13" s="12">
         <v>6.0720000000000001E-5</v>
       </c>
       <c r="AM13">
@@ -2268,14 +2286,14 @@
       <c r="AN13">
         <v>0.90259999999999996</v>
       </c>
-      <c r="AO13" s="13">
+      <c r="AO13" s="12">
         <f t="shared" si="1"/>
         <v>5.7050000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
@@ -2336,58 +2354,58 @@
       <c r="T14" s="5">
         <v>3760</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="14">
         <v>2409</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="13">
         <v>20.5</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W14" s="9">
         <v>0.15890000000000001</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="9">
         <v>0.61460000000000004</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="9">
         <v>23.909700000000001</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="9">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="9">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="9">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="9">
         <v>2.9411999999999998</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14" s="9">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="AE14" s="10">
+      <c r="AE14" s="9">
         <v>0.24129999999999999</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF14" s="9">
         <v>2.52E-2</v>
       </c>
-      <c r="AG14" s="11">
+      <c r="AG14" s="10">
         <v>42</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="11">
         <v>0.85529999999999995</v>
       </c>
       <c r="AI14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ14">
         <v>0.1336</v>
       </c>
-      <c r="AK14" s="13">
+      <c r="AK14" s="12">
         <v>1.6899999999999999E-6</v>
       </c>
-      <c r="AL14" s="13">
+      <c r="AL14" s="12">
         <v>6.528E-8</v>
       </c>
       <c r="AM14">
@@ -2396,14 +2414,14 @@
       <c r="AN14">
         <v>-5.8289999999999997</v>
       </c>
-      <c r="AO14" s="13">
+      <c r="AO14" s="12">
         <f t="shared" si="1"/>
         <v>5.9150000000000001E-5</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6">
         <v>13</v>
@@ -2464,50 +2482,50 @@
       <c r="T15" s="5">
         <v>3800</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="14">
         <v>2471</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="13">
         <v>28.2</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="9">
         <v>0.15959999999999999</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="9">
         <v>0.52149999999999996</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="9">
         <v>25.576799999999999</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="9">
         <v>1.9E-3</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AA15" s="9">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AB15" s="9">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AC15" s="9">
         <v>3.8323999999999998</v>
       </c>
-      <c r="AD15" s="10">
+      <c r="AD15" s="9">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="AE15" s="10">
+      <c r="AE15" s="9">
         <v>1.7830999999999999</v>
       </c>
-      <c r="AF15" s="10">
+      <c r="AF15" s="9">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AG15" s="10">
         <v>47</v>
       </c>
-      <c r="AH15" s="12">
+      <c r="AH15" s="11">
         <v>5.9799999999999999E-2</v>
       </c>
       <c r="AI15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ15">
         <v>0.1343</v>
@@ -2515,7 +2533,7 @@
       <c r="AK15">
         <v>2.1979999999999999E-3</v>
       </c>
-      <c r="AL15" s="13">
+      <c r="AL15" s="12">
         <v>8.6479999999999999E-5</v>
       </c>
       <c r="AM15">
@@ -2524,14 +2542,14 @@
       <c r="AN15">
         <v>0.39410000000000001</v>
       </c>
-      <c r="AO15" s="13">
+      <c r="AO15" s="12">
         <f t="shared" si="1"/>
         <v>7.6929999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="6">
         <v>14</v>
@@ -2592,58 +2610,58 @@
       <c r="T16" s="5">
         <v>3570</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="14">
         <v>2294</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="13">
         <v>22.1</v>
       </c>
-      <c r="W16" s="10">
+      <c r="W16" s="9">
         <v>0.15870000000000001</v>
       </c>
-      <c r="X16" s="10">
+      <c r="X16" s="9">
         <v>0.4929</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Y16" s="9">
         <v>24.575700000000001</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="Z16" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AA16" s="9">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="AB16" s="10">
+      <c r="AB16" s="9">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="AC16" s="10">
+      <c r="AC16" s="9">
         <v>3.6190000000000002</v>
       </c>
-      <c r="AD16" s="10">
+      <c r="AD16" s="9">
         <v>1.26E-2</v>
       </c>
-      <c r="AE16" s="10">
+      <c r="AE16" s="9">
         <v>0.63149999999999995</v>
       </c>
-      <c r="AF16" s="10">
+      <c r="AF16" s="9">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="AG16" s="11">
+      <c r="AG16" s="10">
         <v>67</v>
       </c>
-      <c r="AH16" s="12">
+      <c r="AH16" s="11">
         <v>0.85199999999999998</v>
       </c>
       <c r="AI16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ16">
         <v>0.158</v>
       </c>
-      <c r="AK16" s="13">
+      <c r="AK16" s="12">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="AL16" s="13">
+      <c r="AL16" s="12">
         <v>1.5839999999999999E-7</v>
       </c>
       <c r="AM16">
@@ -2652,14 +2670,14 @@
       <c r="AN16">
         <v>-4.8090000000000002</v>
       </c>
-      <c r="AO16" s="13">
+      <c r="AO16" s="12">
         <f t="shared" si="1"/>
         <v>1.4000000000000001E-4</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6">
         <v>15</v>
@@ -2720,58 +2738,58 @@
       <c r="T17" s="5">
         <v>3750</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="14">
         <v>3077</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="13">
         <v>20.6</v>
       </c>
-      <c r="W17" s="10">
+      <c r="W17" s="9">
         <v>0.20330000000000001</v>
       </c>
-      <c r="X17" s="10">
+      <c r="X17" s="9">
         <v>0.75680000000000003</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="9">
         <v>26.487100000000002</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="Z17" s="9">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AA17" s="9">
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="AB17" s="10">
+      <c r="AB17" s="9">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="AC17" s="10">
+      <c r="AC17" s="9">
         <v>5.0507999999999997</v>
       </c>
-      <c r="AD17" s="10">
+      <c r="AD17" s="9">
         <v>0.1079</v>
       </c>
-      <c r="AE17" s="10">
+      <c r="AE17" s="9">
         <v>1.7898000000000001</v>
       </c>
-      <c r="AF17" s="10">
+      <c r="AF17" s="9">
         <v>0.1663</v>
       </c>
-      <c r="AG17" s="11">
+      <c r="AG17" s="10">
         <v>117</v>
       </c>
-      <c r="AH17" s="12">
+      <c r="AH17" s="11">
         <v>1.3220000000000001E-2</v>
       </c>
       <c r="AI17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ17">
         <v>0.24160000000000001</v>
       </c>
-      <c r="AK17" s="13">
+      <c r="AK17" s="12">
         <v>8.7830000000000004E-4</v>
       </c>
-      <c r="AL17" s="13">
+      <c r="AL17" s="12">
         <v>3.2190000000000002E-5</v>
       </c>
       <c r="AM17">
@@ -2780,14 +2798,14 @@
       <c r="AN17">
         <v>1.4550000000000001</v>
       </c>
-      <c r="AO17" s="13">
+      <c r="AO17" s="12">
         <f t="shared" si="1"/>
         <v>3.07405E-2</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="6">
         <v>16</v>
@@ -2848,58 +2866,58 @@
       <c r="T18" s="5">
         <v>3470</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="14">
         <v>3632</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="13">
         <v>40.700000000000003</v>
       </c>
-      <c r="W18" s="10">
+      <c r="W18" s="9">
         <v>0.2039</v>
       </c>
-      <c r="X18" s="10">
+      <c r="X18" s="9">
         <v>0.66690000000000005</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="Y18" s="9">
         <v>25.4559</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="9">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AA18" s="9">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="AB18" s="10">
+      <c r="AB18" s="9">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="AC18" s="10">
+      <c r="AC18" s="9">
         <v>11.2394</v>
       </c>
-      <c r="AD18" s="10">
+      <c r="AD18" s="9">
         <v>0.16209999999999999</v>
       </c>
-      <c r="AE18" s="10">
+      <c r="AE18" s="9">
         <v>0.52180000000000004</v>
       </c>
-      <c r="AF18" s="10">
+      <c r="AF18" s="9">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="AG18" s="11">
+      <c r="AG18" s="10">
         <v>130</v>
       </c>
-      <c r="AH18" s="12">
+      <c r="AH18" s="11">
         <v>5.0850000000000001E-3</v>
       </c>
       <c r="AI18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ18">
         <v>0.27660000000000001</v>
       </c>
-      <c r="AK18" s="13">
+      <c r="AK18" s="12">
         <v>6.1109999999999995E-4</v>
       </c>
-      <c r="AL18" s="13">
+      <c r="AL18" s="12">
         <v>2.0299999999999999E-5</v>
       </c>
       <c r="AM18">
@@ -2908,14 +2926,14 @@
       <c r="AN18">
         <v>1.885</v>
       </c>
-      <c r="AO18" s="13">
+      <c r="AO18" s="12">
         <f t="shared" si="1"/>
         <v>2.1388500000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6">
         <v>17</v>
@@ -2976,50 +2994,50 @@
       <c r="T19" s="5">
         <v>3570</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="14">
         <v>2755</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="13">
         <v>16.100000000000001</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W19" s="9">
         <v>0.16850000000000001</v>
       </c>
-      <c r="X19" s="10">
+      <c r="X19" s="9">
         <v>0.57569999999999999</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="9">
         <v>23.3445</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="9">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="9">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="9">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="9">
         <v>3.1044999999999998</v>
       </c>
-      <c r="AD19" s="10">
+      <c r="AD19" s="9">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="AE19" s="10">
+      <c r="AE19" s="9">
         <v>0.58630000000000004</v>
       </c>
-      <c r="AF19" s="10">
+      <c r="AF19" s="9">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AG19" s="10">
         <v>68</v>
       </c>
-      <c r="AH19" s="12">
+      <c r="AH19" s="11">
         <v>2.4979999999999999E-2</v>
       </c>
       <c r="AI19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ19">
         <v>0.1719</v>
@@ -3027,7 +3045,7 @@
       <c r="AK19">
         <v>1.5380000000000001E-3</v>
       </c>
-      <c r="AL19" s="13">
+      <c r="AL19" s="12">
         <v>5.6209999999999999E-5</v>
       </c>
       <c r="AM19">
@@ -3036,14 +3054,14 @@
       <c r="AN19">
         <v>0.82930000000000004</v>
       </c>
-      <c r="AO19" s="13">
+      <c r="AO19" s="12">
         <f t="shared" si="1"/>
         <v>5.383000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="6">
         <v>18</v>
@@ -3104,50 +3122,50 @@
       <c r="T20" s="5">
         <v>3620</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="14">
         <v>2563</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="13">
         <v>13.100000000000001</v>
       </c>
-      <c r="W20" s="10">
+      <c r="W20" s="9">
         <v>0.1348</v>
       </c>
-      <c r="X20" s="10">
+      <c r="X20" s="9">
         <v>0.57120000000000004</v>
       </c>
-      <c r="Y20" s="10">
+      <c r="Y20" s="9">
         <v>23.138000000000002</v>
       </c>
-      <c r="Z20" s="10">
+      <c r="Z20" s="9">
         <v>3.3E-3</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AA20" s="9">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AB20" s="10">
+      <c r="AB20" s="9">
         <v>3.73E-2</v>
       </c>
-      <c r="AC20" s="10">
+      <c r="AC20" s="9">
         <v>2.6295000000000002</v>
       </c>
-      <c r="AD20" s="10">
+      <c r="AD20" s="9">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="AE20" s="10">
+      <c r="AE20" s="9">
         <v>0.32979999999999998</v>
       </c>
-      <c r="AF20" s="10">
+      <c r="AF20" s="9">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="AG20" s="11">
+      <c r="AG20" s="10">
         <v>48</v>
       </c>
-      <c r="AH20" s="12">
+      <c r="AH20" s="11">
         <v>3.8609999999999998E-2</v>
       </c>
       <c r="AI20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ20">
         <v>0.13100000000000001</v>
@@ -3155,7 +3173,7 @@
       <c r="AK20">
         <v>2.2539999999999999E-3</v>
       </c>
-      <c r="AL20" s="13">
+      <c r="AL20" s="12">
         <v>8.6769999999999998E-5</v>
       </c>
       <c r="AM20">
@@ -3164,14 +3182,14 @@
       <c r="AN20">
         <v>0.29509999999999997</v>
       </c>
-      <c r="AO20" s="13">
+      <c r="AO20" s="12">
         <f t="shared" si="1"/>
         <v>7.8890000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6">
         <v>19</v>
@@ -3232,50 +3250,50 @@
       <c r="T21" s="5">
         <v>3670</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="14">
         <v>2435</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="13">
         <v>18.899999999999999</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="9">
         <v>0.1134</v>
       </c>
-      <c r="X21" s="10">
+      <c r="X21" s="9">
         <v>0.61870000000000003</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="Y21" s="9">
         <v>24.145800000000001</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="Z21" s="9">
         <v>2E-3</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AA21" s="9">
         <v>5.91E-2</v>
       </c>
-      <c r="AB21" s="10">
+      <c r="AB21" s="9">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="AC21" s="10">
+      <c r="AC21" s="9">
         <v>2.4014000000000002</v>
       </c>
-      <c r="AD21" s="10">
+      <c r="AD21" s="9">
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="AE21" s="10">
+      <c r="AE21" s="9">
         <v>0.99950000000000006</v>
       </c>
-      <c r="AF21" s="10">
+      <c r="AF21" s="9">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AG21" s="10">
         <v>49</v>
       </c>
-      <c r="AH21" s="12">
+      <c r="AH21" s="11">
         <v>3.9059999999999997E-2</v>
       </c>
       <c r="AI21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ21">
         <v>0.13109999999999999</v>
@@ -3283,7 +3301,7 @@
       <c r="AK21">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="AL21" s="13">
+      <c r="AL21" s="12">
         <v>8.1970000000000003E-5</v>
       </c>
       <c r="AM21">
@@ -3292,14 +3310,14 @@
       <c r="AN21">
         <v>0.34329999999999999</v>
       </c>
-      <c r="AO21" s="13">
+      <c r="AO21" s="12">
         <f t="shared" si="1"/>
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="6">
         <v>20</v>
@@ -3360,50 +3378,50 @@
       <c r="T22" s="5">
         <v>3690</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="14">
         <v>2355</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="13">
         <v>14.200000000000001</v>
       </c>
-      <c r="W22" s="10">
+      <c r="W22" s="9">
         <v>0.19969999999999999</v>
       </c>
-      <c r="X22" s="10">
+      <c r="X22" s="9">
         <v>0.57930000000000004</v>
       </c>
-      <c r="Y22" s="10">
+      <c r="Y22" s="9">
         <v>25.738600000000002</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="Z22" s="9">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AA22" s="9">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="AB22" s="10">
+      <c r="AB22" s="9">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="AC22" s="10">
+      <c r="AC22" s="9">
         <v>3.4167999999999998</v>
       </c>
-      <c r="AD22" s="10">
+      <c r="AD22" s="9">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="AE22" s="10">
+      <c r="AE22" s="9">
         <v>2.0546000000000002</v>
       </c>
-      <c r="AF22" s="10">
+      <c r="AF22" s="9">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="AG22" s="11">
+      <c r="AG22" s="10">
         <v>63</v>
       </c>
-      <c r="AH22" s="12">
+      <c r="AH22" s="11">
         <v>2.597E-2</v>
       </c>
       <c r="AI22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ22">
         <v>0.1517</v>
@@ -3411,7 +3429,7 @@
       <c r="AK22">
         <v>1.9350000000000001E-3</v>
       </c>
-      <c r="AL22" s="13">
+      <c r="AL22" s="12">
         <v>7.5939999999999995E-5</v>
       </c>
       <c r="AM22">
@@ -3420,14 +3438,14 @@
       <c r="AN22">
         <v>0.52510000000000001</v>
       </c>
-      <c r="AO22" s="13">
+      <c r="AO22" s="12">
         <f t="shared" si="1"/>
         <v>6.7725000000000007E-2</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6">
         <v>21</v>
@@ -3488,50 +3506,50 @@
       <c r="T23" s="5">
         <v>3600</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="14">
         <v>2252</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V23" s="13">
         <v>17.399999999999999</v>
       </c>
-      <c r="W23" s="10">
+      <c r="W23" s="9">
         <v>0.1623</v>
       </c>
-      <c r="X23" s="10">
+      <c r="X23" s="9">
         <v>0.50480000000000003</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="9">
         <v>24.518899999999999</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="9">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AA23" s="9">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="AB23" s="10">
+      <c r="AB23" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC23" s="10">
+      <c r="AC23" s="9">
         <v>3.1726000000000001</v>
       </c>
-      <c r="AD23" s="10">
+      <c r="AD23" s="9">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="AE23" s="10">
+      <c r="AE23" s="9">
         <v>0.27960000000000002</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AF23" s="9">
         <v>3.27E-2</v>
       </c>
-      <c r="AG23" s="11">
+      <c r="AG23" s="10">
         <v>60</v>
       </c>
-      <c r="AH23" s="12">
+      <c r="AH23" s="11">
         <v>1.519E-2</v>
       </c>
       <c r="AI23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ23">
         <v>0.23780000000000001</v>
@@ -3539,7 +3557,7 @@
       <c r="AK23">
         <v>1.0009999999999999E-3</v>
       </c>
-      <c r="AL23" s="13">
+      <c r="AL23" s="12">
         <v>3.5970000000000003E-5</v>
       </c>
       <c r="AM23">
@@ -3548,14 +3566,14 @@
       <c r="AN23">
         <v>1.3149999999999999</v>
       </c>
-      <c r="AO23" s="13">
+      <c r="AO23" s="12">
         <f t="shared" si="1"/>
         <v>3.5034999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6">
         <v>22</v>
@@ -3616,58 +3634,58 @@
       <c r="T24" s="5">
         <v>3630</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="14">
         <v>2167</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="13">
         <v>11.5</v>
       </c>
-      <c r="W24" s="10">
+      <c r="W24" s="9">
         <v>0.14779999999999999</v>
       </c>
-      <c r="X24" s="10">
+      <c r="X24" s="9">
         <v>0.48309999999999997</v>
       </c>
-      <c r="Y24" s="10">
+      <c r="Y24" s="9">
         <v>24.621200000000002</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="Z24" s="9">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AA24" s="9">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="AB24" s="10">
+      <c r="AB24" s="9">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="AC24" s="10">
+      <c r="AC24" s="9">
         <v>2.9095</v>
       </c>
-      <c r="AD24" s="10">
+      <c r="AD24" s="9">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="AE24" s="10">
+      <c r="AE24" s="9">
         <v>-0.56059999999999999</v>
       </c>
-      <c r="AF24" s="10">
+      <c r="AF24" s="9">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="AG24" s="11">
+      <c r="AG24" s="10">
         <v>48</v>
       </c>
-      <c r="AH24" s="12">
+      <c r="AH24" s="11">
         <v>-9.9620000000000004E-3</v>
       </c>
       <c r="AI24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ24">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AK24" s="13">
+      <c r="AK24" s="12">
         <v>6.0820000000000004E-4</v>
       </c>
-      <c r="AL24" s="13">
+      <c r="AL24" s="12">
         <v>1.9870000000000001E-5</v>
       </c>
       <c r="AM24">
@@ -3676,14 +3694,14 @@
       <c r="AN24">
         <v>2.0129999999999999</v>
       </c>
-      <c r="AO24" s="13">
+      <c r="AO24" s="12">
         <f t="shared" si="1"/>
         <v>2.1287000000000004E-2</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="6">
         <v>23</v>
@@ -3744,50 +3762,50 @@
       <c r="T25" s="5">
         <v>3560</v>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="14">
         <v>2272</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="13">
         <v>11.9</v>
       </c>
-      <c r="W25" s="10">
+      <c r="W25" s="9">
         <v>0.2311</v>
       </c>
-      <c r="X25" s="10">
+      <c r="X25" s="9">
         <v>0.50729999999999997</v>
       </c>
-      <c r="Y25" s="10">
+      <c r="Y25" s="9">
         <v>23.189299999999999</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="Z25" s="9">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="AA25" s="10">
+      <c r="AA25" s="9">
         <v>6.3399999999999998E-2</v>
       </c>
-      <c r="AB25" s="10">
+      <c r="AB25" s="9">
         <v>3.56E-2</v>
       </c>
-      <c r="AC25" s="10">
+      <c r="AC25" s="9">
         <v>3.6635</v>
       </c>
-      <c r="AD25" s="10">
+      <c r="AD25" s="9">
         <v>1.66E-2</v>
       </c>
-      <c r="AE25" s="10">
+      <c r="AE25" s="9">
         <v>0.48920000000000002</v>
       </c>
-      <c r="AF25" s="10">
+      <c r="AF25" s="9">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="AG25" s="11">
+      <c r="AG25" s="10">
         <v>39</v>
       </c>
-      <c r="AH25" s="12">
+      <c r="AH25" s="11">
         <v>1.903E-3</v>
       </c>
       <c r="AI25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ25">
         <v>0.1855</v>
@@ -3795,7 +3813,7 @@
       <c r="AK25">
         <v>1.3129999999999999E-3</v>
       </c>
-      <c r="AL25" s="13">
+      <c r="AL25" s="12">
         <v>4.6589999999999999E-5</v>
       </c>
       <c r="AM25">
@@ -3804,7 +3822,7 @@
       <c r="AN25">
         <v>1.111</v>
       </c>
-      <c r="AO25" s="13">
+      <c r="AO25" s="12">
         <f t="shared" si="1"/>
         <v>4.5955000000000003E-2</v>
       </c>
